--- a/techniqo/data_new_ticker/GICRE.xlsx
+++ b/techniqo/data_new_ticker/GICRE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G698"/>
+  <dimension ref="A1:G700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24816,6 +24816,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>134.15</v>
+      </c>
+      <c r="C699" t="n">
+        <v>135</v>
+      </c>
+      <c r="D699" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E699" t="n">
+        <v>133.65</v>
+      </c>
+      <c r="F699" t="n">
+        <v>191023</v>
+      </c>
+      <c r="G699" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="C700" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="D700" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E700" t="n">
+        <v>133.75</v>
+      </c>
+      <c r="F700" t="n">
+        <v>167600</v>
+      </c>
+      <c r="G700" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/GICRE.xlsx
+++ b/techniqo/data_new_ticker/GICRE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G700"/>
+  <dimension ref="A1:G702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24866,6 +24866,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>133.45</v>
+      </c>
+      <c r="C701" t="n">
+        <v>134.85</v>
+      </c>
+      <c r="D701" t="n">
+        <v>132.75</v>
+      </c>
+      <c r="E701" t="n">
+        <v>133.05</v>
+      </c>
+      <c r="F701" t="n">
+        <v>159767</v>
+      </c>
+      <c r="G701" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C702" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="D702" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="E702" t="n">
+        <v>129</v>
+      </c>
+      <c r="F702" t="n">
+        <v>359160</v>
+      </c>
+      <c r="G702" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
